--- a/data/ASP_input_parameters_german.xlsx
+++ b/data/ASP_input_parameters_german.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbsl\Documents\GitHub\asparagus_cif_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajna\Documents\HORTIBONN\PROJECTS\Onion_DA_model\aspargus\asparagus_cif_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBD2819-CC0D-4EC5-A02B-386A012D97B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E444B78-6CBA-48B3-8FA7-B0DACF9D5A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="158">
   <si>
     <t>variable</t>
   </si>
@@ -499,6 +499,21 @@
   </si>
   <si>
     <t>tractor</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Asparagus;Onion</t>
+  </si>
+  <si>
+    <t>Asparagus farmer</t>
   </si>
 </sst>
 </file>
@@ -595,7 +610,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -895,12 +910,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="73.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -961,17 +976,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92018703-4177-49D8-B09E-62560F009CDF}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
-    <col min="10" max="10" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" customWidth="1"/>
+    <col min="10" max="10" width="70.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1006,7 +1021,7 @@
         <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1038,7 +1053,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>157</v>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1070,7 +1088,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>157</v>
+      </c>
+      <c r="K3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1102,7 +1123,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>157</v>
+      </c>
+      <c r="K4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
@@ -1136,6 +1160,9 @@
       <c r="J5" t="s">
         <v>115</v>
       </c>
+      <c r="K5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
@@ -1167,6 +1194,9 @@
       </c>
       <c r="J6" t="s">
         <v>115</v>
+      </c>
+      <c r="K6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1178,7 +1208,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="15.6">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1187,7 +1217,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" ht="15.6">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1206,23 +1236,23 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="79" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1257,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1291,6 +1321,9 @@
       <c r="J2" t="s">
         <v>115</v>
       </c>
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
@@ -1323,6 +1356,9 @@
       <c r="J3" t="s">
         <v>115</v>
       </c>
+      <c r="K3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
@@ -1355,6 +1391,9 @@
       <c r="J4" t="s">
         <v>115</v>
       </c>
+      <c r="K4" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
@@ -1386,6 +1425,9 @@
       </c>
       <c r="J5" t="s">
         <v>115</v>
+      </c>
+      <c r="K5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1427,7 +1469,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1436,7 +1478,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1455,20 +1497,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95267B7B-4544-45E1-AE00-31F080BD66E3}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="70.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1503,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1537,6 +1579,9 @@
       <c r="J2" t="s">
         <v>115</v>
       </c>
+      <c r="K2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
@@ -1569,6 +1614,9 @@
       <c r="J3" t="s">
         <v>115</v>
       </c>
+      <c r="K3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
@@ -1601,6 +1649,9 @@
       <c r="J4" t="s">
         <v>115</v>
       </c>
+      <c r="K4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
@@ -1632,6 +1683,9 @@
       </c>
       <c r="J5" t="s">
         <v>115</v>
+      </c>
+      <c r="K5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1646,7 +1700,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1655,7 +1709,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="15.6">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1673,21 +1727,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E46615A-8238-4E62-BD61-353FBA21321A}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="34.109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="52" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="70.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="70.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1722,7 +1776,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1756,7 +1810,9 @@
       <c r="J2" t="s">
         <v>115</v>
       </c>
-      <c r="K2"/>
+      <c r="K2" t="s">
+        <v>156</v>
+      </c>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -1770,7 +1826,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75">
+    <row r="14" spans="1:14" ht="15.6">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1779,7 +1835,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75">
+    <row r="15" spans="1:14" ht="15.6">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1788,7 +1844,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75">
+    <row r="16" spans="1:14" ht="15.6">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1797,7 +1853,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1806,7 +1862,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1815,7 +1871,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1852,13 +1908,13 @@
       <selection activeCell="A17" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="60.140625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="85.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="60.109375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="51.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1918,12 +1974,12 @@
       <selection activeCell="N16" sqref="A2:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1975,17 +2031,17 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -2054,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -2075,7 +2131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -2096,7 +2152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="15.6">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -2117,7 +2173,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -2138,7 +2194,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -2159,7 +2215,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2180,7 +2236,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
@@ -2201,7 +2257,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
@@ -2222,7 +2278,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="15.6">
       <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
@@ -2243,7 +2299,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -2264,7 +2320,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -2291,7 +2347,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="4" t="s">
         <v>48</v>
       </c>
@@ -2315,7 +2371,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="4" t="s">
         <v>50</v>
       </c>
@@ -2336,7 +2392,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
@@ -2363,7 +2419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -2387,7 +2443,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="4" t="s">
         <v>56</v>
       </c>
@@ -2408,7 +2464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="4" t="s">
         <v>58</v>
       </c>
@@ -2429,7 +2485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="4" t="s">
         <v>60</v>
       </c>
@@ -2450,7 +2506,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
@@ -2471,7 +2527,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="4" t="s">
         <v>64</v>
       </c>
@@ -2492,7 +2548,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="4" t="s">
         <v>66</v>
       </c>
@@ -2513,7 +2569,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="4" t="s">
         <v>68</v>
       </c>
@@ -2534,7 +2590,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
@@ -2555,7 +2611,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="4" t="s">
         <v>72</v>
       </c>
@@ -2576,7 +2632,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="4" t="s">
         <v>74</v>
       </c>
@@ -2597,7 +2653,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="4" t="s">
         <v>76</v>
       </c>
@@ -2618,7 +2674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="15.6">
       <c r="A49" s="4" t="s">
         <v>79</v>
       </c>

--- a/data/ASP_input_parameters_german.xlsx
+++ b/data/ASP_input_parameters_german.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajna\Documents\HORTIBONN\PROJECTS\Onion_DA_model\aspargus\asparagus_cif_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbsl\Documents\R-Projects\asparagus_cif_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E444B78-6CBA-48B3-8FA7-B0DACF9D5A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4299C8D-04DC-4272-9F3F-9808F1C06FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="675" windowWidth="26025" windowHeight="14430" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="13" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="17" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="11" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="16" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="419">
   <si>
     <t>variable</t>
   </si>
@@ -514,6 +515,789 @@
   </si>
   <si>
     <t>Asparagus farmer</t>
+  </si>
+  <si>
+    <t>Abiotische Schäden</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>Saatbett Vorbereitung</t>
+  </si>
+  <si>
+    <t>header4</t>
+  </si>
+  <si>
+    <t>risk_seedbed_medium_t</t>
+  </si>
+  <si>
+    <t>Saatbett Risiko mittel</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit (0–1) für mittleres Stressniveau durch Saatbettbedingungen.</t>
+  </si>
+  <si>
+    <t>Datenanalyst</t>
+  </si>
+  <si>
+    <t>risk_seedbed_high_t</t>
+  </si>
+  <si>
+    <t>Saatbett Risiko hoch</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit (0–1) für hohes Stressniveau durch Saatbettbedingungen.</t>
+  </si>
+  <si>
+    <t>yield_reduction_seedbed_t</t>
+  </si>
+  <si>
+    <t>Ertragsminderung Saatbett</t>
+  </si>
+  <si>
+    <t>Multiplikativer Ertragsminderungsfaktor (0–1), der beim Auftreten von Saatbettstress angewendet wird.</t>
+  </si>
+  <si>
+    <t>Zwiebelbauer;Zwiebel Anbauberater</t>
+  </si>
+  <si>
+    <t>prec_seedbed_high_p</t>
+  </si>
+  <si>
+    <t>mm/Tag</t>
+  </si>
+  <si>
+    <t>Niederschlagsschwelle Saatbett hoch</t>
+  </si>
+  <si>
+    <t>Oberer Niederschlagswert, ab dem hohes Stressniveau im Saatbett auftritt.</t>
+  </si>
+  <si>
+    <t>prec_seedbed_medium_p</t>
+  </si>
+  <si>
+    <t>Niederschlagsschwelle Saatbett mittel</t>
+  </si>
+  <si>
+    <t>Oberer Niederschlagswert, ab dem mittleres Stressniveau im Saatbett auftritt.</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>Starkregen</t>
+  </si>
+  <si>
+    <t>prec_extreme_rain_medium_p</t>
+  </si>
+  <si>
+    <t>Niederschlagsschwelle Starkregen mittel</t>
+  </si>
+  <si>
+    <t>Tägliche Niederschlagsmenge, ab der ein mittleres Starkregenrisiko besteht.</t>
+  </si>
+  <si>
+    <t>Datenanalyst;Zwiebel Anbauberater;Zwiebelbauer</t>
+  </si>
+  <si>
+    <t>prec_extreme_rain_high_p</t>
+  </si>
+  <si>
+    <t>Niederschlagsschwelle Starkregen hoch</t>
+  </si>
+  <si>
+    <t>Tägliche Niederschlagsmenge, ab der ein hohes Starkregenrisiko besteht.</t>
+  </si>
+  <si>
+    <t>impact_days_extreme_rain_p</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Regentage Starkregen</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark aufeinanderfolgende Starkregentage das Risiko beeinflussen.</t>
+  </si>
+  <si>
+    <t>yield_reduction_extreme_rain_t</t>
+  </si>
+  <si>
+    <t>Ertragsminderung Starkregen</t>
+  </si>
+  <si>
+    <t>Multiplikativer Ertragsminderungsfaktor (0–1), der beim Auftreten von Starkregen angewendet wird.</t>
+  </si>
+  <si>
+    <t>Hagel</t>
+  </si>
+  <si>
+    <t>prec_hail_threshold_p</t>
+  </si>
+  <si>
+    <t>Niederschlagsschwelle Hagel</t>
+  </si>
+  <si>
+    <t>Tägliche Niederschlagsmenge, ab der ein erhöhtes Hagelrisiko besteht.</t>
+  </si>
+  <si>
+    <t>Tavg_hail_threshold_p</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Temperaturgrenze Hagel</t>
+  </si>
+  <si>
+    <t>Temperaturbereich, in dem ein erhöhtes Hagelrisiko besteht.</t>
+  </si>
+  <si>
+    <t>impact_days_hail_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Hageltage</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark aufeinanderfolgende Hageltage das Risiko beeinflussen.</t>
+  </si>
+  <si>
+    <t>yield_reduction_hail_p</t>
+  </si>
+  <si>
+    <t>Ertragsminderung Hagel</t>
+  </si>
+  <si>
+    <t>Multiplikativer Ertragsminderungsfaktor (0–1), der beim Auftreten von Hagel angewendet wird.</t>
+  </si>
+  <si>
+    <t>Trockenstress</t>
+  </si>
+  <si>
+    <t>prec_drought_threshold_p</t>
+  </si>
+  <si>
+    <t>Niederschlagsschwelle Trockenstress</t>
+  </si>
+  <si>
+    <t>Durchschnittliche tägliche Niederschlagsmenge über einen  Zeitraum von mehreren Wochen, ab der ein erhöhtes Risiko für Trockenstress besteht.</t>
+  </si>
+  <si>
+    <t>Tavg_drought_threshold_p</t>
+  </si>
+  <si>
+    <t>Temperaturgrenze Trockenstress</t>
+  </si>
+  <si>
+    <t>Temperaturbereich, ab dem ein erhöhtes Risiko für Trockenstress besteht.</t>
+  </si>
+  <si>
+    <t>impact_prec_drought_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Niederschlag Trockenstress</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark die Niederschlagsmenge das Risiko für Trockenstress beeinflusst.</t>
+  </si>
+  <si>
+    <t>impact_days_dry_drought_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Trockentage Trockenstress</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark aufeinanderfolgende Trockentage das Risiko für Trockenstress beeinflussen.</t>
+  </si>
+  <si>
+    <t>impact_temp_drought_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Temperatur Trockenstress</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark die Temperatur das Risiko für Trockenstress beeinflusst.</t>
+  </si>
+  <si>
+    <t>yield_reduction_drought_t</t>
+  </si>
+  <si>
+    <t>Ertragsminderung Trockenstress</t>
+  </si>
+  <si>
+    <t>Multiplikativer Ertragsminderungsfaktor (0–1), der beim Auftreten von Trockenstress angewendet wird.</t>
+  </si>
+  <si>
+    <t>Biotische Schäden</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>Wachstumsparameter</t>
+  </si>
+  <si>
+    <t>Zwiebelhalsfäule (Botrytis allii)</t>
+  </si>
+  <si>
+    <t>prec_botrytis_threshold_p</t>
+  </si>
+  <si>
+    <t>Schwellenwert  täglicher Niederschlag Zwiebelhalsfäule</t>
+  </si>
+  <si>
+    <t>Tägliche Niederschlagsmenge, ab der ein erhöhtes Risiko für Zwiebelhalsfäule auftritt.</t>
+  </si>
+  <si>
+    <t>impact_prec_botrytis_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Niederschlagsmenge Zwiebelhalsfäule</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark Niederschlag das Risiko eines Befalls mit Zwiebelhalsfäule beeinflussen.</t>
+  </si>
+  <si>
+    <t>impact_days_wet_botrytis_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor aufeinanderfolgende Regentage  Zwiebelhalsfäule</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor (0–1), der angibt, wie stark aufeinanderfolgende Tage das Risiko eines Befalls mit Zwiebelhalsfäule beeinflussen.</t>
+  </si>
+  <si>
+    <t>Topt_botrytis_p</t>
+  </si>
+  <si>
+    <t>Optimumtemperatur Zwiebelhalsfäule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperaturbereich in dem ein hohes Risiko für einen Zwiebelhalsfäule Befall vorliegt. </t>
+  </si>
+  <si>
+    <t>Toleranzwert um die Optimumtemperatur_p</t>
+  </si>
+  <si>
+    <t>Toleranzwert um Optimum Zwiebelhalsfäule</t>
+  </si>
+  <si>
+    <t>Bereich um den Optimumwert, in dem das Zwiebelhalsfäule Risko hoch bleibt.</t>
+  </si>
+  <si>
+    <t>yield_reduction_botrytis_t</t>
+  </si>
+  <si>
+    <t>Ertragsminderung Zwiebelhalsfäule</t>
+  </si>
+  <si>
+    <t>Multiplikativer Ertragsminderungsfaktor (0–1), der beim Eintreten des Stresses angewendet wird.</t>
+  </si>
+  <si>
+    <t>Falscher Mehltau (Peronospora destructor)</t>
+  </si>
+  <si>
+    <t>prec_mildew_threshold_p</t>
+  </si>
+  <si>
+    <t>Schwellenwert  täglicher Niederschlag Falscher Mehltau</t>
+  </si>
+  <si>
+    <t>Tägliche Niederschlagsmenge, ab der ein erhöhtes Risiko für Falschen Mehltau auftritt.</t>
+  </si>
+  <si>
+    <t>impact_prec_mildew_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Niederschlagsmenge  Falscher Mehltau</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark Niederschlag das Risiko eines Befalls mit Falschem Mehltau beeinflussen.</t>
+  </si>
+  <si>
+    <t>impact_days_wet_mildew_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor aufeinanderfolgende Regentage Falscher Mehltau</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor (0–1), der angibt, wie stark aufeinanderfolgende Tage das Risiko eines Befalls mit Falschem Mehltau beeinflussen.</t>
+  </si>
+  <si>
+    <t>Topt_mildew_p</t>
+  </si>
+  <si>
+    <t>Optimal Temperatur Falscher Mehltau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperaturbereich in dem ein hohes Risiko für einen Falschen Mehltau Befall vorliegt. </t>
+  </si>
+  <si>
+    <t>Twidth_mildew_p</t>
+  </si>
+  <si>
+    <t>Temperaturtoleranz um Optimum Falscher Mehltau</t>
+  </si>
+  <si>
+    <t>Bereich um den Optimumwert, in dem das Botrytis-Risiko hoch bleibt.</t>
+  </si>
+  <si>
+    <t>yield_reduction_downy_mildew_t</t>
+  </si>
+  <si>
+    <t>Ertragsminderung Falscher Mehltau</t>
+  </si>
+  <si>
+    <t>Zwiebelbasalfäule (Fusarium oxysporum)</t>
+  </si>
+  <si>
+    <t>prec_fusarium_threshold_p</t>
+  </si>
+  <si>
+    <t>Schwellenwert  täglicher Niederschlag Zwiebelbasalfäule</t>
+  </si>
+  <si>
+    <t>Tägliche Niederschlagsmenge, ab der ein erhöhtes Risiko für Zwiebelbasalfäule besteht.</t>
+  </si>
+  <si>
+    <t>impact_prec_fusarium_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Niederschlag Zwiebelbasalfäule</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark Niederschlag das Risiko eines Befalls mit Zwiebelbasalfäule beeinflusst.</t>
+  </si>
+  <si>
+    <t>impact_days_wet_fusarium_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor aufeinanderfolgende Regentage Zwiebelbasalfäule</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark aufeinanderfolgende Regentage das Risiko eines Befalls mit Zwiebelbasalfäule beeinflussen.</t>
+  </si>
+  <si>
+    <t>Topt_fusarium_p</t>
+  </si>
+  <si>
+    <t>Optimumtemperatur Zwiebelbasalfäule</t>
+  </si>
+  <si>
+    <t>Temperaturbereich, in dem ein hohes Risiko für einen Befall mit Zwiebelbasalfäule besteht.</t>
+  </si>
+  <si>
+    <t>Twidth_fusarium_p</t>
+  </si>
+  <si>
+    <t>Temperaturtoleranz um Optimum Zwiebelbasalfäule</t>
+  </si>
+  <si>
+    <t>Bereich um den Optimumwert, in dem das Risiko für Zwiebelbasalfäule hoch bleibt.</t>
+  </si>
+  <si>
+    <t>yield_reduction_fusarium_t</t>
+  </si>
+  <si>
+    <t>Ertragsminderung Zwiebelbasalfäule</t>
+  </si>
+  <si>
+    <t>Multiplikativer Ertragsminderungsfaktor (0–1), der beim Auftreten von Zwiebelbasalfäule angewendet wird.</t>
+  </si>
+  <si>
+    <t>Zwiebelfliege</t>
+  </si>
+  <si>
+    <t>prec_onion_fly_threshold_p</t>
+  </si>
+  <si>
+    <t>Schwellenwert  täglicher Niederschlag Zwiebelfliege</t>
+  </si>
+  <si>
+    <t>Tägliche Niederschlagsmenge, ab der ein erhöhtes Risiko für Zwiebelfliegenbefall besteht.</t>
+  </si>
+  <si>
+    <t>Topt_onion_fly_p</t>
+  </si>
+  <si>
+    <t>Optimumtemperatur Zwiebelfliege</t>
+  </si>
+  <si>
+    <t>Temperaturbereich, in dem ein hohes Risiko für Zwiebelfliegenbefall besteht.</t>
+  </si>
+  <si>
+    <t>Twidth_onion_fly_p</t>
+  </si>
+  <si>
+    <t>Temperaturtoleranz um Optimum Zwiebelfliege</t>
+  </si>
+  <si>
+    <t>Bereich um den Optimumwert, in dem das Risiko für Zwiebelfliegenbefall hoch bleibt.</t>
+  </si>
+  <si>
+    <t>impact_prec_onion_fly_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Niederschlag Zwiebelfliege</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark Niederschlag das Risiko eines Befalls mit Zwiebelfliegen beeinflusst.</t>
+  </si>
+  <si>
+    <t>impact_days_wet_onion_fly_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor aufeinanderfolgende Regentage Zwiebelfliege</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark aufeinanderfolgende Regentage das Risiko eines Befalls mit Zwiebelfliegen beeinflussen.</t>
+  </si>
+  <si>
+    <t>yield_reduction_onion_fly_t</t>
+  </si>
+  <si>
+    <t>Ertragsminderung Zwiebelfliege</t>
+  </si>
+  <si>
+    <t>Multiplikativer Ertragsminderungsfaktor (0–1), der beim Auftreten von Zwiebelfliegenbefall angewendet wird.</t>
+  </si>
+  <si>
+    <t>Drahtwurm</t>
+  </si>
+  <si>
+    <t>prec_wireworm_threshold_p</t>
+  </si>
+  <si>
+    <t>Schwellenwert  täglicher Niederschlag  Drahtwurm</t>
+  </si>
+  <si>
+    <t>Tägliche Niederschlagsmenge, ab der ein erhöhtes Risiko für Drahtwurmbefall besteht.</t>
+  </si>
+  <si>
+    <t>Topt_wireworm_p</t>
+  </si>
+  <si>
+    <t>Optimumtemperatur Drahtwurm</t>
+  </si>
+  <si>
+    <t>Temperaturbereich, in dem ein hohes Risiko für Drahtwurmbefall besteht.</t>
+  </si>
+  <si>
+    <t>Twidth_wireworm_p</t>
+  </si>
+  <si>
+    <t>Temperaturtoleranz um Optimum Drahtwurm</t>
+  </si>
+  <si>
+    <t>Bereich um den Optimumwert, in dem das Risiko für Drahtwurmbefall hoch bleibt.</t>
+  </si>
+  <si>
+    <t>impact_prec_wireworm_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Niederschlag Drahtwurm</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark Niederschlag das Risiko eines Drahtwurmbefalls beeinflusst.</t>
+  </si>
+  <si>
+    <t>impact_days_wet_wireworm_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor aufeinanderfolgende Regentage Drahtwurm</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark aufeinanderfolgende Regentage das Risiko eines Drahtwurmbefalls beeinflussen.</t>
+  </si>
+  <si>
+    <t>yield_reduction_wireworm_t</t>
+  </si>
+  <si>
+    <t>Ertragsminderung Drahtwurm</t>
+  </si>
+  <si>
+    <t>Multiplikativer Ertragsminderungsfaktor (0–1), der beim Auftreten von Drahtwurmbefall angewendet wird.</t>
+  </si>
+  <si>
+    <t>Thripse</t>
+  </si>
+  <si>
+    <t>prec_thrips_threshold_p</t>
+  </si>
+  <si>
+    <t>Schwellenwert  täglicher Niederschlag Thripse</t>
+  </si>
+  <si>
+    <t>Tägliche Niederschlagsmenge, ab der ein erhöhtes Risiko für Thripsbefall besteht.</t>
+  </si>
+  <si>
+    <t>Topt_thrips_p</t>
+  </si>
+  <si>
+    <t>Optimumtemperatur Thripse</t>
+  </si>
+  <si>
+    <t>Temperaturbereich, in dem ein hohes Risiko für Thripsbefall besteht.</t>
+  </si>
+  <si>
+    <t>Twidth_thrips_p</t>
+  </si>
+  <si>
+    <t>Temperaturtoleranz um Optimum Thripse</t>
+  </si>
+  <si>
+    <t>Bereich um den Optimumwert, in dem das Risiko für Thripsbefall hoch bleibt.</t>
+  </si>
+  <si>
+    <t>impact_prec_thrips_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor Trockenheit Thripse</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark Trockenheit das Risiko eines Thripsbefalls beeinflusst.</t>
+  </si>
+  <si>
+    <t>impact_days_dry_thrips_t</t>
+  </si>
+  <si>
+    <t>Wirkungsfaktor aufeinanderfolgende Trockentage Thripse</t>
+  </si>
+  <si>
+    <t>Gewichtungsfaktor (0–1), der angibt, wie stark aufeinanderfolgende Trockentage das Risiko eines Thripsbefalls beeinflussen.</t>
+  </si>
+  <si>
+    <t>yield_reduction_thrips_t</t>
+  </si>
+  <si>
+    <t>Ertragsminderung Thripse</t>
+  </si>
+  <si>
+    <t>Multiplikativer Ertragsminderungsfaktor (0–1), der beim Auftreten von Thripsbefall angewendet wird.</t>
+  </si>
+  <si>
+    <t>base_temp_p</t>
+  </si>
+  <si>
+    <t>Base temperature [°C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatur Schwellenwert unter dem kein Wachstum stattfindet </t>
+  </si>
+  <si>
+    <t>Zwiebel Anbauberater;Datenanalyst</t>
+  </si>
+  <si>
+    <t>GDD_field_emergence_required_p</t>
+  </si>
+  <si>
+    <t>°C Tage</t>
+  </si>
+  <si>
+    <t>Wachstumsgradtage/Wärmesumme Feldaufgang</t>
+  </si>
+  <si>
+    <t>Benötigte Wärmesumme (in Wachstumsgradtagen) bis zum Ende der Feldaufgangsphase</t>
+  </si>
+  <si>
+    <t>GDD_vegetative_required_p</t>
+  </si>
+  <si>
+    <t>Wachstumsgradtage/Wärmesumme vegetative Phase</t>
+  </si>
+  <si>
+    <t>Benötigte Wärmesumme (in Wachstumsgradtagen) bis zum Ende der vegetativen Phase</t>
+  </si>
+  <si>
+    <t>GDD_bulbing_required_p</t>
+  </si>
+  <si>
+    <t>Wachstumsgradtage/Wärmesumme Knollenbildungsphase</t>
+  </si>
+  <si>
+    <t>Benötigte Wärmesumme (in Wachstumsgradtagen) bis zum Ende der Knollenbildungsphase</t>
+  </si>
+  <si>
+    <t>GDD_maturation_required_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wachstumsgradtage/Wärmesumme Abreifephase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benötigte Wärmesumme (in Wachstumsgradtagen) bis zum Ende der Abreisephase </t>
+  </si>
+  <si>
+    <t>LUE_onion_p</t>
+  </si>
+  <si>
+    <t>g/MJ</t>
+  </si>
+  <si>
+    <t>Lichtnutzungseffizienz Zwiebel</t>
+  </si>
+  <si>
+    <t>Biomasseproduktion pro Einheit eingestrahlter und genutzter Strahlung (g/MJ).</t>
+  </si>
+  <si>
+    <t>LAI_emergence_p</t>
+  </si>
+  <si>
+    <t>Blattflächenindex Feldaufgang</t>
+  </si>
+  <si>
+    <t>Blattflächenindex während der Auflaufphase.</t>
+  </si>
+  <si>
+    <t>LAI_veg_p</t>
+  </si>
+  <si>
+    <t>Blattflächenindex vegetative Phase</t>
+  </si>
+  <si>
+    <t>Blattflächenindex während der vegetativen Wachstumsphase.</t>
+  </si>
+  <si>
+    <t>LAI_bulbing_p</t>
+  </si>
+  <si>
+    <t>Blattflächenindex Knollenbildungsphase</t>
+  </si>
+  <si>
+    <t>Blattflächenindex während der Knollenbildungsphase.</t>
+  </si>
+  <si>
+    <t>LAI_maturation_p</t>
+  </si>
+  <si>
+    <t>Blattflächenindex Abreifephase</t>
+  </si>
+  <si>
+    <t>Blattflächenindex während der Reifephase.</t>
+  </si>
+  <si>
+    <t>Krs_c</t>
+  </si>
+  <si>
+    <t>Standortkonstante Krs</t>
+  </si>
+  <si>
+    <t>Empirischer Hargreaves-Koeffizient (einheitenlos), für die Berechnung der kurzwelligen Strahlung genutzt.</t>
+  </si>
+  <si>
+    <t>lec_k_c</t>
+  </si>
+  <si>
+    <t>Lichtextinktionskoeffizient k</t>
+  </si>
+  <si>
+    <t>Einheitenloser Koeffizient, der bestimmt, wie stark das Blätterdach die Strahlung abfängt (Beer–Lambert-Gesetz).</t>
+  </si>
+  <si>
+    <t>f_T_1_upper_p</t>
+  </si>
+  <si>
+    <t>Temperatur obere Grenze f(T)=1</t>
+  </si>
+  <si>
+    <t>Obere Temperaturgrenze (°C), bis zu der Biomassewachstum optimal bleibt.</t>
+  </si>
+  <si>
+    <t>f_T_1_lower_p</t>
+  </si>
+  <si>
+    <t>Temperatur untere Grenze f(T)=1</t>
+  </si>
+  <si>
+    <t>Untere Temperaturgrenze (°C), ab der Biomassewachstum optimal bleibt.</t>
+  </si>
+  <si>
+    <t>f_T_0_upper_p</t>
+  </si>
+  <si>
+    <t>Temperatur obere Grenze f(T)=0</t>
+  </si>
+  <si>
+    <t>Temperatur (°C), oberhalb derer kein Biomassewachstum mehr stattfindet.</t>
+  </si>
+  <si>
+    <t>f_T_0_lower_p</t>
+  </si>
+  <si>
+    <t>Temperatur untere Grenze f(T)=0</t>
+  </si>
+  <si>
+    <t>Temperatur (°C), unterhalb derer kein Biomassewachstum mehr stattfindet.</t>
+  </si>
+  <si>
+    <t>f_W_1_upper_p</t>
+  </si>
+  <si>
+    <t>Niederschlag obere Grenze f(W)=1</t>
+  </si>
+  <si>
+    <t>Täglicher Niederschlag (mm/Tag), bis zu dem Wasser nicht limitierend wirkt.</t>
+  </si>
+  <si>
+    <t>f_W_1_lower_p</t>
+  </si>
+  <si>
+    <t>Niederschlag untere Grenze f(W)=1</t>
+  </si>
+  <si>
+    <t>Täglicher Niederschlag (mm/Tag), ab dem Wasser nicht limitierend wirkt.</t>
+  </si>
+  <si>
+    <t>f_W_0.5_p</t>
+  </si>
+  <si>
+    <t>Niederschlag f(W)=0.5</t>
+  </si>
+  <si>
+    <t>Täglicher Niederschlag (mm/Tag), bei dem das Biomassewachstum auf 50 % reduziert ist.</t>
+  </si>
+  <si>
+    <t>Asparagus farmer;Policy-maker;Data analyst;Market analyst;Data analyst</t>
+  </si>
+  <si>
+    <t>planting_yday_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag der Aussaat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag des Jahres an dem die Zwiebelaussaat stattfindet </t>
+  </si>
+  <si>
+    <t>Zwiebelbauer;Zwiebel Anbauberater;Datenanalyst</t>
+  </si>
+  <si>
+    <t>HI_onions_p</t>
+  </si>
+  <si>
+    <t>Ernte Index</t>
+  </si>
+  <si>
+    <t>Anteil der geernteten Speicherorgane (Zwiebelknollen) an der gesamten oberirdischen Biomasse der Pflanze</t>
+  </si>
+  <si>
+    <t>onions_per_ha_p</t>
+  </si>
+  <si>
+    <t>Pflanzen/ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwiebeldichte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aussaatmenge an Zwiebeln pro Hektar </t>
+  </si>
+  <si>
+    <t>dry_onion_weight_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anteil Trockengewicht </t>
+  </si>
+  <si>
+    <t>Anteil des Trockengewichts am Gesamtgewicht der Zwiebel</t>
   </si>
 </sst>
 </file>
@@ -595,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -608,9 +1392,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -904,18 +1700,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19247B9C-F4A5-4DCC-BF21-E18D3CC8C8F5}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -952,20 +1748,46 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -976,17 +1798,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92018703-4177-49D8-B09E-62560F009CDF}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.109375" customWidth="1"/>
-    <col min="10" max="10" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="10" max="10" width="70.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1091,7 +1913,7 @@
         <v>157</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1158,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>404</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
@@ -1193,10 +2015,144 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>404</v>
       </c>
       <c r="K6" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G8" t="s">
+        <v>411</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9">
+        <v>700000</v>
+      </c>
+      <c r="C9">
+        <v>900000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" t="s">
+        <v>415</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10">
+        <v>0.88</v>
+      </c>
+      <c r="C10">
+        <v>0.92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>0.05</v>
+      </c>
+      <c r="J10" t="s">
+        <v>408</v>
+      </c>
+      <c r="K10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1208,7 +2164,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1217,7 +2173,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1235,24 +2191,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546B24F0-A477-4B95-8562-CC4F97744405}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="79" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1469,7 +2425,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1478,7 +2434,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1497,20 +2453,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95267B7B-4544-45E1-AE00-31F080BD66E3}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="70.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1580,7 +2536,7 @@
         <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1615,7 +2571,7 @@
         <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1650,7 +2606,7 @@
         <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1685,7 +2641,7 @@
         <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1700,7 +2656,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1709,7 +2665,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1724,6 +2680,2888 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49756CD-7B89-4299-B487-83FA9AC75873}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="60.140625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="F2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>0.05</v>
+      </c>
+      <c r="J3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>0.05</v>
+      </c>
+      <c r="J4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+      <c r="C5">
+        <v>0.9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0.05</v>
+      </c>
+      <c r="J5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="H8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="F9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13">
+        <v>0.6</v>
+      </c>
+      <c r="C13">
+        <v>0.85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>0.05</v>
+      </c>
+      <c r="J13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="H14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="F15" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18">
+        <v>0.3</v>
+      </c>
+      <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>0.8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>0.05</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="H20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="F21" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>0.1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <v>0.7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>0.05</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27">
+        <v>0.6</v>
+      </c>
+      <c r="C27">
+        <v>0.9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>0.05</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8485F19-4118-CA49-B5A5-49D6574876CF}">
+  <dimension ref="A1:K48"/>
+  <sheetViews>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="60.140625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" customFormat="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>0.05</v>
+      </c>
+      <c r="J8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="H9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="F10" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="C12">
+        <v>0.6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13">
+        <v>0.3</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16">
+        <v>0.6</v>
+      </c>
+      <c r="C16">
+        <v>0.85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>0.05</v>
+      </c>
+      <c r="J16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="H17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="F18" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20">
+        <v>0.7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>0.6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>0.1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24">
+        <v>0.7</v>
+      </c>
+      <c r="C24">
+        <v>0.9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>0.05</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>185</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30">
+        <v>0.3</v>
+      </c>
+      <c r="C30">
+        <v>0.7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>0.1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31">
+        <v>0.2</v>
+      </c>
+      <c r="C31">
+        <v>0.6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32">
+        <v>0.7</v>
+      </c>
+      <c r="C32">
+        <v>0.9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>0.05</v>
+      </c>
+      <c r="J32" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>185</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38">
+        <v>0.3</v>
+      </c>
+      <c r="C38">
+        <v>0.7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>0.1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>185</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39">
+        <v>0.2</v>
+      </c>
+      <c r="C39">
+        <v>0.6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>0.1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>185</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40">
+        <v>0.7</v>
+      </c>
+      <c r="C40">
+        <v>0.9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>0.05</v>
+      </c>
+      <c r="J40" t="s">
+        <v>185</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>185</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>335</v>
+      </c>
+      <c r="B46">
+        <v>0.3</v>
+      </c>
+      <c r="C46">
+        <v>0.7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>0.1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47">
+        <v>0.2</v>
+      </c>
+      <c r="C47">
+        <v>0.6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>0.1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48">
+        <v>0.8</v>
+      </c>
+      <c r="C48">
+        <v>0.95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>0.05</v>
+      </c>
+      <c r="J48" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E27EF3F-1977-4DFD-AB2B-D5DA3F473BBD}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" customFormat="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>700</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>347</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+      <c r="C7">
+        <v>2.8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>347</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9">
+        <v>1.3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11">
+        <v>1.4</v>
+      </c>
+      <c r="C11">
+        <v>1.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12">
+        <v>0.17</v>
+      </c>
+      <c r="C12">
+        <v>0.17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>0.05</v>
+      </c>
+      <c r="J12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13">
+        <v>0.65</v>
+      </c>
+      <c r="C13">
+        <v>0.65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>0.05</v>
+      </c>
+      <c r="J13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20">
+        <v>0.8</v>
+      </c>
+      <c r="C20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E46615A-8238-4E62-BD61-353FBA21321A}">
   <dimension ref="A1:N54"/>
   <sheetViews>
@@ -1731,17 +5569,17 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="34.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="52" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="70.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="70.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1826,7 +5664,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="15.6">
+    <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1835,7 +5673,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="15.6">
+    <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1844,7 +5682,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="15.6">
+    <row r="16" spans="1:14" ht="15.75">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1853,7 +5691,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1862,7 +5700,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6">
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1871,7 +5709,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1900,130 +5738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49756CD-7B89-4299-B487-83FA9AC75873}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A2:XFD17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="60.109375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="51.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="85.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="F11" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E27EF3F-1977-4DFD-AB2B-D5DA3F473BBD}">
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="A2:N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C99B5D5-3CCA-E043-BA6C-B55A0129E176}">
   <dimension ref="A1:L49"/>
   <sheetViews>
@@ -2031,17 +5746,17 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -2110,7 +5825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -2131,7 +5846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -2152,7 +5867,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -2173,7 +5888,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +5909,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -2215,7 +5930,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.6">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2236,7 +5951,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.6">
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
@@ -2257,7 +5972,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
@@ -2278,7 +5993,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.6">
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
@@ -2299,7 +6014,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.6">
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -2320,7 +6035,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -2347,7 +6062,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.6">
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="4" t="s">
         <v>48</v>
       </c>
@@ -2371,7 +6086,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.6">
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="4" t="s">
         <v>50</v>
       </c>
@@ -2392,7 +6107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.6">
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
@@ -2419,7 +6134,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.6">
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -2443,7 +6158,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.6">
+    <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="4" t="s">
         <v>56</v>
       </c>
@@ -2464,7 +6179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.6">
+    <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="4" t="s">
         <v>58</v>
       </c>
@@ -2485,7 +6200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6">
+    <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="4" t="s">
         <v>60</v>
       </c>
@@ -2506,7 +6221,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.6">
+    <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
@@ -2527,7 +6242,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.6">
+    <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="4" t="s">
         <v>64</v>
       </c>
@@ -2548,7 +6263,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.6">
+    <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="4" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +6284,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.6">
+    <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="4" t="s">
         <v>68</v>
       </c>
@@ -2590,7 +6305,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.6">
+    <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
@@ -2611,7 +6326,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.6">
+    <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="4" t="s">
         <v>72</v>
       </c>
@@ -2632,7 +6347,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.6">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="4" t="s">
         <v>74</v>
       </c>
@@ -2653,7 +6368,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.6">
+    <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="4" t="s">
         <v>76</v>
       </c>
@@ -2674,7 +6389,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.6">
+    <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="4" t="s">
         <v>79</v>
       </c>
